--- a/Trabajo_individual/datos/datos.xlsx
+++ b/Trabajo_individual/datos/datos.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Diseno_experimental\Trabajo_individual\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279990A3-234A-44C0-92CF-BF301A3972B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F83BB9E-DF4D-4786-AFBF-F1F874585C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{8B550D4F-923A-401C-9E15-57C2DDDCB846}"/>
+    <workbookView xWindow="3525" yWindow="690" windowWidth="15375" windowHeight="7875" activeTab="4" xr2:uid="{8B550D4F-923A-401C-9E15-57C2DDDCB846}"/>
   </bookViews>
   <sheets>
     <sheet name="ANOVA" sheetId="1" r:id="rId1"/>
     <sheet name="Test Normalidad" sheetId="2" r:id="rId2"/>
     <sheet name="Test -homocedasticidad" sheetId="3" r:id="rId3"/>
     <sheet name="Test autocorrelación" sheetId="4" r:id="rId4"/>
+    <sheet name="Tukey" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Test Normalidad'!$B$2:$B$37</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Test Normalidad'!$B$2:$B$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="72">
   <si>
     <t>Psuelo</t>
   </si>
@@ -62,9 +62,6 @@
     <t>N°</t>
   </si>
   <si>
-    <t>Yi</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -77,19 +74,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>Yi^2</t>
-  </si>
-  <si>
-    <t>Yj</t>
-  </si>
-  <si>
-    <t>Yj^2</t>
-  </si>
-  <si>
     <t>Promedio</t>
-  </si>
-  <si>
-    <t>Sum Sq</t>
   </si>
   <si>
     <t>Mean Sq</t>
@@ -192,6 +177,72 @@
   </si>
   <si>
     <t>DW</t>
+  </si>
+  <si>
+    <t>Mserror</t>
+  </si>
+  <si>
+    <t>SE_intensidad_pastoreo</t>
+  </si>
+  <si>
+    <t>SE_Psuelo</t>
+  </si>
+  <si>
+    <t>q_intesidad_pastoreo</t>
+  </si>
+  <si>
+    <t>q_Psuelo</t>
+  </si>
+  <si>
+    <t>DMS _intensidad_pastoreo</t>
+  </si>
+  <si>
+    <t>DMS_Psuelo</t>
+  </si>
+  <si>
+    <t>Diferencias Absolutas</t>
+  </si>
+  <si>
+    <t>G0-G0.7</t>
+  </si>
+  <si>
+    <t>G0-G1.2</t>
+  </si>
+  <si>
+    <t>G0-G1.6</t>
+  </si>
+  <si>
+    <t>G07-G1.6</t>
+  </si>
+  <si>
+    <t>G0.7-G1.2</t>
+  </si>
+  <si>
+    <t>G1.2-G1.6</t>
+  </si>
+  <si>
+    <t>Es mayor a DMS_intesidad_pastoreo?</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>Es mayor a DMS_Psuelo?</t>
+  </si>
+  <si>
+    <t>(NH4+-N)-NO3-N</t>
+  </si>
+  <si>
+    <t>(NH4+-N)-P</t>
+  </si>
+  <si>
+    <t>(NO3-N)-P</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -338,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +569,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -679,7 +736,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -696,6 +753,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -761,7 +821,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1771,6 +1831,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466087</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FBF90D4-7F0B-E80E-BC39-F35026BA5057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553325" y="0"/>
+          <a:ext cx="5104762" cy="2466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>39816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>113918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12AD6BB-CEF3-59F8-0228-736F48016F56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591424" y="2325816"/>
+          <a:ext cx="6895201" cy="2931602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2070,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71EA099-1CB6-435D-BF5B-2D1DCC51A273}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2101,25 +2254,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2207,24 +2360,16 @@
         <v>0.16083333333333338</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N3" s="1">
         <v>3</v>
       </c>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2269,30 +2414,16 @@
         <v>0.24083333333333345</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N4" s="1">
         <v>3</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="1">
-        <f>AVERAGEIF($C$2:$C$37,R3,$D$2:$D$37)</f>
-        <v>0.73</v>
-      </c>
-      <c r="S4" s="1">
-        <f t="shared" ref="S4:U4" si="8">AVERAGEIF($C$2:$C$37,S3,$D$2:$D$37)</f>
-        <v>0.9966666666666667</v>
-      </c>
-      <c r="T4" s="1">
-        <f t="shared" si="8"/>
-        <v>0.82</v>
-      </c>
-      <c r="U4" s="1">
-        <f t="shared" si="8"/>
-        <v>0.95666666666666655</v>
-      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2337,30 +2468,16 @@
         <v>-0.29583333333333317</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N5" s="1">
         <v>4</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="1">
-        <f>9*(R4-$D$38)^2</f>
-        <v>0.19140625000000011</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" ref="S5:U5" si="9">9*(S4-$D$38)^2</f>
-        <v>0.13140625000000003</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" si="9"/>
-        <v>2.8056250000000071E-2</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" si="9"/>
-        <v>5.880624999999981E-2</v>
-      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2405,7 +2522,7 @@
         <v>-0.23583333333333334</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N6" s="1">
         <f>N3*N4*N5</f>
@@ -2460,13 +2577,8 @@
         <f t="shared" si="6"/>
         <v>-0.17583333333333329</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="1">
-        <f>SUM(R5:U5)</f>
-        <v>0.40967500000000001</v>
-      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -2514,13 +2626,8 @@
         <v>-2.9166666666666563E-2</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="Q8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="1">
-        <f>R7/3</f>
-        <v>0.13655833333333334</v>
-      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -2613,15 +2720,9 @@
         <v>9.0833333333333544E-2</v>
       </c>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2670,21 +2771,10 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R11" s="1">
-        <f>AVERAGEIF($B$2:$B$37,R10,$D$2:$D$37)</f>
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="S11" s="1">
-        <f t="shared" ref="S11:T11" si="10">AVERAGEIF($B$2:$B$37,S10,$D$2:$D$37)</f>
-        <v>9.2500000000000013E-2</v>
-      </c>
-      <c r="T11" s="1">
-        <f t="shared" si="10"/>
-        <v>1.29</v>
-      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2733,21 +2823,10 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R12" s="1">
-        <f>12*(R11-$D$38)^2</f>
-        <v>1.6354083333333342</v>
-      </c>
-      <c r="S12" s="1">
-        <f t="shared" ref="S12:T12" si="11">12*(S11-$D$38)^2</f>
-        <v>7.3633333333333333</v>
-      </c>
-      <c r="T12" s="1">
-        <f t="shared" si="11"/>
-        <v>2.0584083333333334</v>
-      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2848,13 +2927,8 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="1">
-        <f>SUM(R12:T12)</f>
-        <v>11.05715</v>
-      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -2905,13 +2979,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15">
-        <f>R14/2</f>
-        <v>5.528575</v>
-      </c>
+      <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3897,7 +3965,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D38">
         <f>AVERAGE(D2:D37)</f>
@@ -3922,7 +3990,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H40">
         <f>N5-1</f>
@@ -3939,7 +4007,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H41" s="2">
         <f>H38/H40</f>
@@ -3956,7 +4024,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H42">
         <f>H41/J41</f>
@@ -3969,7 +4037,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H43">
         <f>FDIST(H42,H40,J40)</f>
@@ -4007,16 +4075,16 @@
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4052,7 +4120,7 @@
         <v>4.4880937898772559E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D38" si="1">A3/$A$37</f>
+        <f t="shared" ref="D3:D37" si="1">A3/$A$37</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="E3">
@@ -4776,7 +4844,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E38">
         <f>MAX(E2:E37)</f>
@@ -4785,14 +4853,14 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C39" s="1">
         <f>AVERAGE(B2:B37)</f>
         <v>1.3569392523196359E-16</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E39" s="1">
         <f>1.36/36^0.5</f>
@@ -4802,14 +4870,14 @@
     </row>
     <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C40" s="1">
         <f>_xlfn.STDEV.S(B2:B37)</f>
         <v>0.17436267621581991</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E40" s="1" t="b">
         <f>E38&lt;E39</f>
@@ -4830,7 +4898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF7DACE-FC0D-4131-AF0B-EC2FAB0E6241}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -4870,7 +4938,7 @@
         <v>1.18</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>36</v>
@@ -4891,7 +4959,7 @@
         <v>1.26</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -4971,7 +5039,7 @@
         <v>1.19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1">
         <f t="array" ref="F7">_xlfn.VAR.P(IF($B$2:$B$37=F6, $D$2:$D$37))</f>
@@ -5001,7 +5069,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1">
         <f t="array" ref="F8">COUNTIF($B$2:$B$37,F6)</f>
@@ -5059,7 +5127,7 @@
         <v>1.28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1">
         <f>SUM(F9:H9)</f>
@@ -5083,7 +5151,7 @@
         <v>1.26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1">
         <f>(F8-1)*LN(F7)</f>
@@ -5113,7 +5181,7 @@
         <v>1.37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1">
         <f>1/(F8-1)</f>
@@ -5182,10 +5250,10 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -5229,7 +5297,7 @@
         <v>0.114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1">
         <f>F16/G16</f>
@@ -5253,7 +5321,7 @@
         <v>0.12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F18">
         <f>_xlfn.CHISQ.DIST.RT(F17,2)</f>
@@ -5577,7 +5645,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>A40+1</f>
+        <f t="shared" ref="A41:A75" si="4">A40+1</f>
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -5590,7 +5658,7 @@
         <v>1.26</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I41">
         <v>36</v>
@@ -5598,7 +5666,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>A41+1</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -5611,7 +5679,7 @@
         <v>1.34</v>
       </c>
       <c r="H42" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I42">
         <v>4</v>
@@ -5619,7 +5687,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f>A42+1</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -5634,7 +5702,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f>A43+1</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -5653,7 +5721,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f>A44+1</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -5681,7 +5749,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f>A45+1</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -5694,7 +5762,7 @@
         <v>0.82</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F46" s="1">
         <f t="array" ref="F46">_xlfn.VAR.P(IF($B$40:$B$75=F45, $D$40:$D$75))</f>
@@ -5715,7 +5783,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f>A46+1</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -5728,7 +5796,7 @@
         <v>0.86</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F47" s="1">
         <f t="array" ref="F47">COUNTIF($B$40:$B$75,F45)</f>
@@ -5749,7 +5817,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f>A47+1</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -5762,28 +5830,28 @@
         <v>0.9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F48" s="1">
         <f>(F47-1)*F46/($I$41-$I$42)</f>
         <v>6.1562000000000013E-2</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" ref="G48:I48" si="4">(G47-1)*G46/($I$41-$I$42)</f>
+        <f t="shared" ref="G48:I48" si="5">(G47-1)*G46/($I$41-$I$42)</f>
         <v>0.1121297777777777</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.535911111111109E-2</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.7650000000000084E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f>A48+1</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -5796,7 +5864,7 @@
         <v>1.07</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F49" s="1">
         <f>SUM(F48:I48)</f>
@@ -5807,7 +5875,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f>A49+1</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -5820,28 +5888,28 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F50" s="1">
         <f>(F47-1)*LN(F46)</f>
         <v>-11.211328966322656</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" ref="G50:I50" si="5">(G47-1)*LN(G46)</f>
+        <f t="shared" ref="G50:I50" si="6">(G47-1)*LN(G46)</f>
         <v>-6.4144318977445698</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-10.732512538353436</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-7.5205700843164607</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>A50+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -5854,28 +5922,28 @@
         <v>1.19</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F51" s="1">
         <f>1/(F47-1)</f>
         <v>0.125</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" ref="G51:I51" si="6">1/(G47-1)</f>
+        <f t="shared" ref="G51:I51" si="7">1/(G47-1)</f>
         <v>0.125</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f>A51+1</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -5894,7 +5962,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f>A52+1</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -5913,7 +5981,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f>A53+1</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -5927,16 +5995,16 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f>A54+1</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -5961,7 +6029,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f>A55+1</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -5974,7 +6042,7 @@
         <v>1.74</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F56" s="1">
         <f>F55/G55</f>
@@ -5985,7 +6053,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f>A56+1</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -5998,7 +6066,7 @@
         <v>1.82</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F57">
         <f>_xlfn.CHISQ.DIST.RT(F56,3)</f>
@@ -6007,7 +6075,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f>A57+1</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -6026,7 +6094,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f>A58+1</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -6045,7 +6113,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f>A59+1</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -6064,7 +6132,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f>A60+1</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -6079,7 +6147,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f>A61+1</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -6094,7 +6162,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f>A62+1</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -6109,7 +6177,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f>A63+1</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -6124,7 +6192,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f>A64+1</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -6139,7 +6207,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f>A65+1</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -6154,7 +6222,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f>A66+1</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -6173,7 +6241,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f>A67+1</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -6192,7 +6260,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f>A68+1</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -6211,7 +6279,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f>A69+1</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -6226,7 +6294,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f>A70+1</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -6241,7 +6309,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f>A71+1</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -6256,7 +6324,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f>A72+1</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -6271,7 +6339,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f>A73+1</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -6286,7 +6354,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f>A74+1</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -6312,8 +6380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3065B724-BAC6-4F46-A1CF-6F3A09776C87}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6323,13 +6391,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6951,11 +7019,913 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D40">
         <f>D38/C38</f>
         <v>1.0659135187785234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7562067-F3E6-4CF5-BAD7-C735BC65004C}">
+  <dimension ref="A1:J45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A37" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="F4" s="1">
+        <f>COUNTIF($B$2:$B$37,F3)</f>
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:H4" si="1">COUNTIF($B$2:$B$37,G3)</f>
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="array" ref="F5">AVERAGEIF($B$2:$B$37,F3,$D$2:$D$37)</f>
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="array" ref="G5">AVERAGEIF($B$2:$B$37,G3,$D$2:$D$37)</f>
+        <v>9.2500000000000013E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="array" ref="H5">AVERAGEIF($B$2:$B$37,H3,$D$2:$D$37)</f>
+        <v>1.29</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="array" ref="F10">COUNTIF($C$2:$C$37,F9)</f>
+        <v>9</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="array" ref="G10">COUNTIF($C$2:$C$37,G9)</f>
+        <v>9</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="array" ref="H10">COUNTIF($C$2:$C$37,H9)</f>
+        <v>9</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="array" ref="I10">COUNTIF($C$2:$C$37,I9)</f>
+        <v>9</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.26</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="array" ref="F11">AVERAGEIF($C$2:$C$37,F9,$D$2:$D$37)</f>
+        <v>0.73</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="array" ref="G11">AVERAGEIF($C$2:$C$37,G9,$D$2:$D$37)</f>
+        <v>0.9966666666666667</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="array" ref="H11">AVERAGEIF($C$2:$C$37,H9,$D$2:$D$37)</f>
+        <v>0.82</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="array" ref="I11">AVERAGEIF($C$2:$C$37,I9,$D$2:$D$37)</f>
+        <v>0.95666666666666655</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1.37</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1.48</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="5">
+        <f>ANOVA!J41</f>
+        <v>3.5469399999999991E-2</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="5">
+        <f>(G19/9)^0.5</f>
+        <v>6.2777738446398682E-2</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="5">
+        <f>(G19/G4)^0.5</f>
+        <v>5.4367116286716297E-2</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.108</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="1">
+        <f>G22*G20</f>
+        <v>0.27245538485737025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="1">
+        <f>G23*G21</f>
+        <v>0.19789630328364732</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30">
+        <f>ABS(F11-G11)</f>
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="H30" t="b">
+        <f>G30&gt;=$G$24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31">
+        <f>ABS(F11-H11)</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="H31" t="b">
+        <f t="shared" ref="H31:H35" si="2">G31&gt;=$G$24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32">
+        <f>ABS(F11-I11)</f>
+        <v>0.22666666666666657</v>
+      </c>
+      <c r="H32" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33">
+        <f>ABS(G11-H11)</f>
+        <v>0.17666666666666675</v>
+      </c>
+      <c r="H33" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34">
+        <f>ABS(G11-I11)</f>
+        <v>4.0000000000000147E-2</v>
+      </c>
+      <c r="H34" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35">
+        <f>ABS(H11-I11)</f>
+        <v>0.1366666666666666</v>
+      </c>
+      <c r="H35" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="F37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38">
+        <f>ABS(F5-G5)</f>
+        <v>1.1525000000000001</v>
+      </c>
+      <c r="H38" t="b">
+        <f>G38&gt;=$G$25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39">
+        <f>ABS(F5-H5)</f>
+        <v>4.4999999999999929E-2</v>
+      </c>
+      <c r="H39" t="b">
+        <f t="shared" ref="H39:H40" si="3">G39&gt;=$G$25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40">
+        <f>ABS(G5-H5)</f>
+        <v>1.1975</v>
+      </c>
+      <c r="H40" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Trabajo_individual/datos/datos.xlsx
+++ b/Trabajo_individual/datos/datos.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Diseno_experimental\Trabajo_individual\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F83BB9E-DF4D-4786-AFBF-F1F874585C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0DBECC-5A21-4836-BA9E-C3D5446AF583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="690" windowWidth="15375" windowHeight="7875" activeTab="4" xr2:uid="{8B550D4F-923A-401C-9E15-57C2DDDCB846}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{8B550D4F-923A-401C-9E15-57C2DDDCB846}"/>
   </bookViews>
   <sheets>
     <sheet name="ANOVA" sheetId="1" r:id="rId1"/>
     <sheet name="Test Normalidad" sheetId="2" r:id="rId2"/>
     <sheet name="Test -homocedasticidad" sheetId="3" r:id="rId3"/>
     <sheet name="Test autocorrelación" sheetId="4" r:id="rId4"/>
-    <sheet name="Tukey" sheetId="5" r:id="rId5"/>
+    <sheet name="Test Tukey" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Test Normalidad'!$B$2:$B$37</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="75">
   <si>
     <t>Psuelo</t>
   </si>
@@ -243,6 +243,15 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>Bloque</t>
+  </si>
+  <si>
+    <t>Tratamiento</t>
+  </si>
+  <si>
+    <t>ab</t>
   </si>
 </sst>
 </file>
@@ -576,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -691,6 +700,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -736,7 +763,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -757,6 +784,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1831,99 +1883,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>466087</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180667</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FBF90D4-7F0B-E80E-BC39-F35026BA5057}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7553325" y="0"/>
-          <a:ext cx="5104762" cy="2466667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>733424</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>39816</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>8625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>113918</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12AD6BB-CEF3-59F8-0228-736F48016F56}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7591424" y="2325816"/>
-          <a:ext cx="6895201" cy="2931602"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -6380,8 +6339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3065B724-BAC6-4F46-A1CF-6F3A09776C87}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7034,139 +6993,140 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7562067-F3E6-4CF5-BAD7-C735BC65004C}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="11">
         <v>1.18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="12">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="12">
         <v>1.26</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="12">
         <f t="shared" ref="A4:A37" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="12">
         <v>1.34</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="11">
         <f>COUNTIF($B$2:$B$37,F3)</f>
         <v>12</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="11">
         <f t="shared" ref="G4:H4" si="1">COUNTIF($B$2:$B$37,G3)</f>
         <v>12</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="11">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="12">
         <v>1.07</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="14">
         <f t="array" ref="F5">AVERAGEIF($B$2:$B$37,F3,$D$2:$D$37)</f>
         <v>1.2450000000000001</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="14">
         <f t="array" ref="G5">AVERAGEIF($B$2:$B$37,G3,$D$2:$D$37)</f>
         <v>9.2500000000000013E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="14">
         <f t="array" ref="H5">AVERAGEIF($B$2:$B$37,H3,$D$2:$D$37)</f>
         <v>1.29</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="12">
         <v>1.1299999999999999</v>
       </c>
       <c r="F6" s="1"/>
@@ -7176,17 +7136,17 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="12">
         <v>1.19</v>
       </c>
       <c r="F7" s="1"/>
@@ -7196,17 +7156,17 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="F8" s="1"/>
@@ -7216,109 +7176,109 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="13">
         <v>1.22</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="15" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="13">
         <v>1.28</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="16">
         <f t="array" ref="F10">COUNTIF($C$2:$C$37,F9)</f>
         <v>9</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="16">
         <f t="array" ref="G10">COUNTIF($C$2:$C$37,G9)</f>
         <v>9</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="16">
         <f t="array" ref="H10">COUNTIF($C$2:$C$37,H9)</f>
         <v>9</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="16">
         <f t="array" ref="I10">COUNTIF($C$2:$C$37,I9)</f>
         <v>9</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="13">
         <v>1.26</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="17">
         <f t="array" ref="F11">AVERAGEIF($C$2:$C$37,F9,$D$2:$D$37)</f>
         <v>0.73</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="17">
         <f t="array" ref="G11">AVERAGEIF($C$2:$C$37,G9,$D$2:$D$37)</f>
         <v>0.9966666666666667</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="17">
         <f t="array" ref="H11">AVERAGEIF($C$2:$C$37,H9,$D$2:$D$37)</f>
         <v>0.82</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="17">
         <f t="array" ref="I11">AVERAGEIF($C$2:$C$37,I9,$D$2:$D$37)</f>
         <v>0.95666666666666655</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="13">
         <v>1.37</v>
       </c>
       <c r="H12" s="5"/>
@@ -7326,17 +7286,17 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="13">
         <v>1.48</v>
       </c>
       <c r="H13" s="1"/>
@@ -7344,17 +7304,17 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="13">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="H14" s="1"/>
@@ -7362,17 +7322,17 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="13">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="13">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H15" s="1"/>
@@ -7380,17 +7340,17 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="12">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="H16" s="1"/>
@@ -7398,17 +7358,17 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="12">
         <v>0.114</v>
       </c>
       <c r="H17" s="1"/>
@@ -7416,17 +7376,17 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="12">
         <v>0.12</v>
       </c>
       <c r="F18" s="1"/>
@@ -7435,17 +7395,17 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="12">
         <v>0.126</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -7459,17 +7419,17 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="12">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -7483,17 +7443,17 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="12">
         <v>0.1</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -7507,429 +7467,463 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="12">
         <v>0.108</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G22" s="1">
-        <v>4.34</v>
+        <v>3.8454000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G23" s="1">
-        <v>3.64</v>
+        <v>3.4864000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="12">
         <v>0.08</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="7">
         <f>G22*G20</f>
-        <v>0.27245538485737025</v>
+        <v>0.24140551542178149</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="12">
         <v>0.09</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="7">
         <f>G23*G21</f>
-        <v>0.19789630328364732</v>
+        <v>0.18954551422200772</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="12">
         <v>0.82</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="12">
         <v>0.86</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="12">
         <v>0.9</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="12">
         <v>1.66</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="12">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="12">
         <v>1.74</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="11">
         <f>ABS(F11-G11)</f>
         <v>0.26666666666666672</v>
       </c>
-      <c r="H30" t="b">
+      <c r="H30" s="11" t="b">
         <f>G30&gt;=$G$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="12">
         <v>1.82</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="12">
         <f>ABS(F11-H11)</f>
         <v>8.9999999999999969E-2</v>
       </c>
-      <c r="H31" t="b">
+      <c r="H31" s="12" t="b">
         <f t="shared" ref="H31:H35" si="2">G31&gt;=$G$24</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="12">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="12">
         <f>ABS(F11-I11)</f>
         <v>0.22666666666666657</v>
       </c>
-      <c r="H32" t="b">
+      <c r="H32" s="12" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="12">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="12">
         <f>ABS(G11-H11)</f>
         <v>0.17666666666666675</v>
       </c>
-      <c r="H33" t="b">
+      <c r="H33" s="12" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="12">
         <v>1.18</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="12">
         <f>ABS(G11-I11)</f>
         <v>4.0000000000000147E-2</v>
       </c>
-      <c r="H34" t="b">
+      <c r="H34" s="12" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="12">
         <v>1.3</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="14">
         <f>ABS(H11-I11)</f>
         <v>0.1366666666666666</v>
       </c>
-      <c r="H35" t="b">
+      <c r="H35" s="14" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="12">
         <v>1.42</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="14">
         <v>1.54</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="11">
         <f>ABS(F5-G5)</f>
         <v>1.1525000000000001</v>
       </c>
-      <c r="H38" t="b">
+      <c r="H38" s="11" t="b">
         <f>G38&gt;=$G$25</f>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F39" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="12">
         <f>ABS(F5-H5)</f>
         <v>4.4999999999999929E-2</v>
       </c>
-      <c r="H39" t="b">
+      <c r="H39" s="12" t="b">
         <f t="shared" ref="H39:H40" si="3">G39&gt;=$G$25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F40" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="14">
         <f>ABS(G5-H5)</f>
         <v>1.1975</v>
       </c>
-      <c r="H40" t="b">
+      <c r="H40" s="14" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G42" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F42" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="1" t="s">
+      <c r="I42" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F43" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F44" s="1" t="s">
+      <c r="I43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F44" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F45" s="1" t="s">
+      <c r="I44" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F45" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="14" t="s">
         <v>71</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I46" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Trabajo_individual/datos/datos.xlsx
+++ b/Trabajo_individual/datos/datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Diseno_experimental\Trabajo_individual\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos_GitHub\Diseno_experimental\Trabajo_individual\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0DBECC-5A21-4836-BA9E-C3D5446AF583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FB146D-464E-4D5B-9362-98BAC81AF8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{8B550D4F-923A-401C-9E15-57C2DDDCB846}"/>
+    <workbookView xWindow="28680" yWindow="1050" windowWidth="24240" windowHeight="13140" xr2:uid="{8B550D4F-923A-401C-9E15-57C2DDDCB846}"/>
   </bookViews>
   <sheets>
     <sheet name="ANOVA" sheetId="1" r:id="rId1"/>
@@ -1613,94 +1613,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>377057</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>208819</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>18573</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9EE18AE-16F4-A51F-9DE5-C1FF2FE76EF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8063732" y="0"/>
-          <a:ext cx="4403762" cy="2876073"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>694992</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57057</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A4EC0A-FFAC-0D6E-2928-0E2816B3C84B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8001000" y="2933700"/>
-          <a:ext cx="2666667" cy="742857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -1726,7 +1638,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1770,7 +1682,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1794,23 +1706,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>561128</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123427</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666080</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E1F49C-BF38-56FD-0238-D81F9E8751B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28EF276E-C6A9-1A79-5CFD-68A281006C64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,51 +1738,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5219700" y="371475"/>
-          <a:ext cx="6771428" cy="3180952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>751805</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>66498</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28EF276E-C6A9-1A79-5CFD-68A281006C64}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4533900" y="6267450"/>
+          <a:off x="3686175" y="6553200"/>
           <a:ext cx="5361905" cy="1419048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2182,7 +2050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71EA099-1CB6-435D-BF5B-2D1DCC51A273}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -4017,7 +3885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6ADE52-EA9A-4256-95D6-21E88E521118}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:B37"/>
     </sheetView>
   </sheetViews>
@@ -4857,7 +4725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF7DACE-FC0D-4131-AF0B-EC2FAB0E6241}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -6339,7 +6207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3065B724-BAC6-4F46-A1CF-6F3A09776C87}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -6995,8 +6863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7562067-F3E6-4CF5-BAD7-C735BC65004C}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42:G45"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
